--- a/Input/MATSimInputPlatoonFatigue.xlsx
+++ b/Input/MATSimInputPlatoonFatigue.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Projects\SwissTraffic\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F614F6-FDFB-49FF-A983-C90638ED329E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" tabRatio="813"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
     <t>NumSims</t>
   </si>
@@ -137,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -230,26 +229,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -272,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,40 +269,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -639,46 +600,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.86328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="37.86328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.1328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="4" customWidth="1"/>
     <col min="7" max="7" width="10" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.3984375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.86328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
     <col min="10" max="10" width="10" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.73046875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.73046875" style="4" customWidth="1"/>
-    <col min="13" max="14" width="11.1328125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="4" customWidth="1"/>
+    <col min="13" max="14" width="11.140625" style="4" customWidth="1"/>
     <col min="15" max="15" width="14" style="4" customWidth="1"/>
-    <col min="16" max="16" width="11.1328125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.06640625" style="4"/>
+    <col min="16" max="16" width="11.140625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9" style="4"/>
     <col min="18" max="18" width="11" style="4" customWidth="1"/>
     <col min="19" max="19" width="13" style="4" customWidth="1"/>
-    <col min="20" max="20" width="10.59765625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="10.86328125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="9.06640625" style="4"/>
-    <col min="23" max="23" width="12.3984375" style="4" customWidth="1"/>
-    <col min="24" max="24" width="9.06640625" style="4"/>
-    <col min="25" max="25" width="10.9296875" style="4" customWidth="1"/>
-    <col min="26" max="16384" width="9.06640625" style="4"/>
+    <col min="20" max="20" width="10.5703125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" style="4" customWidth="1"/>
+    <col min="22" max="22" width="9" style="4"/>
+    <col min="23" max="23" width="12.42578125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="9" style="4"/>
+    <col min="25" max="25" width="11" style="4" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -751,55 +712,55 @@
       <c r="X1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>50000</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>0.12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7">
+        <v>2</v>
+      </c>
+      <c r="M2" s="9">
+        <v>5</v>
       </c>
       <c r="N2" s="7">
         <v>500</v>
@@ -807,214 +768,621 @@
       <c r="O2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>1</v>
-      </c>
-      <c r="R2" s="6">
-        <v>1</v>
-      </c>
-      <c r="S2" s="6">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6">
-        <v>1</v>
-      </c>
-      <c r="U2" s="6">
-        <v>0</v>
-      </c>
-      <c r="V2" s="6" t="s">
+      <c r="P2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>1</v>
+      </c>
+      <c r="R2" s="7">
+        <v>1</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7">
+        <v>1</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="6">
-        <v>1</v>
-      </c>
-      <c r="X2" s="8">
+      <c r="W2" s="7">
+        <v>1</v>
+      </c>
+      <c r="X2" s="10">
         <v>1.46</v>
       </c>
-      <c r="Y2" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="16">
+      <c r="Y2" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="12">
         <v>40</v>
       </c>
-      <c r="AA2" s="16">
+      <c r="AA2" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="9">
-        <f>A2</f>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>50000</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>0.12</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11" t="str">
-        <f>E2</f>
-        <v>VenogeLuca</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>2</v>
+      </c>
+      <c r="M3" s="9">
+        <v>5</v>
+      </c>
+      <c r="N3" s="7">
+        <v>500</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>1</v>
+      </c>
+      <c r="R3" s="7">
+        <v>1</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <v>1</v>
+      </c>
+      <c r="U3" s="7">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="7">
+        <v>1</v>
+      </c>
+      <c r="X3" s="10">
+        <v>1.46</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>50000</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
         <v>0.2</v>
       </c>
-      <c r="K3" s="11">
-        <v>1</v>
-      </c>
-      <c r="L3" s="11">
-        <v>4</v>
-      </c>
-      <c r="M3" s="13">
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>2</v>
+      </c>
+      <c r="M4" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="N4" s="7">
+        <v>500</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>1</v>
+      </c>
+      <c r="R4" s="7">
+        <v>1</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>1</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" s="7">
+        <v>1</v>
+      </c>
+      <c r="X4" s="10">
+        <v>1.46</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>50000</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2</v>
+      </c>
+      <c r="M5" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>500</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>1</v>
+      </c>
+      <c r="R5" s="7">
+        <v>1</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>1</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" s="7">
+        <v>1</v>
+      </c>
+      <c r="X5" s="10">
+        <v>1.46</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>50000</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>2</v>
+      </c>
+      <c r="M6" s="9">
         <v>10</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N6" s="7">
         <v>500</v>
       </c>
-      <c r="O3" s="10" t="str">
-        <f>O2</f>
-        <v>PlatoonFatigue</v>
-      </c>
-      <c r="P3" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>1</v>
-      </c>
-      <c r="R3" s="11">
-        <v>1</v>
-      </c>
-      <c r="S3" s="11">
-        <v>0</v>
-      </c>
-      <c r="T3" s="11">
-        <v>1</v>
-      </c>
-      <c r="U3" s="11">
-        <v>0</v>
-      </c>
-      <c r="V3" s="11" t="s">
+      <c r="O6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>1</v>
+      </c>
+      <c r="R6" s="7">
+        <v>1</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>1</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="11">
-        <v>1</v>
-      </c>
-      <c r="X3" s="14">
+      <c r="W6" s="7">
+        <v>1</v>
+      </c>
+      <c r="X6" s="10">
         <v>1.46</v>
       </c>
-      <c r="Y3" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="17">
-        <f>Z2</f>
+      <c r="Y6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="12">
         <v>40</v>
       </c>
-      <c r="AA3" s="18">
+      <c r="AA6" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="9">
-        <f>A3</f>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>50000</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C7" s="8">
         <v>0.12</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="11" t="str">
-        <f>E3</f>
-        <v>VenogeLuca</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
         <v>0.4</v>
       </c>
-      <c r="K4" s="11">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11">
-        <v>4</v>
-      </c>
-      <c r="M4" s="13">
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9">
         <v>10</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N7" s="7">
         <v>500</v>
       </c>
-      <c r="O4" s="10" t="str">
-        <f>O3</f>
-        <v>PlatoonFatigue</v>
-      </c>
-      <c r="P4" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>1</v>
-      </c>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11">
-        <v>0</v>
-      </c>
-      <c r="T4" s="11">
-        <v>1</v>
-      </c>
-      <c r="U4" s="11">
-        <v>0</v>
-      </c>
-      <c r="V4" s="11" t="s">
+      <c r="O7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>1</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="W4" s="11">
-        <v>1</v>
-      </c>
-      <c r="X4" s="14">
+      <c r="W7" s="7">
+        <v>1</v>
+      </c>
+      <c r="X7" s="10">
         <v>1.46</v>
       </c>
-      <c r="Y4" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="17">
-        <f>Z3</f>
+      <c r="Y7" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="12">
         <v>40</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AA7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>50000</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>2</v>
+      </c>
+      <c r="M8" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="N8" s="7">
+        <v>500</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>1</v>
+      </c>
+      <c r="R8" s="7">
+        <v>1</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="7">
+        <v>1</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W8" s="7">
+        <v>1</v>
+      </c>
+      <c r="X8" s="10">
+        <v>1.46</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2</v>
+      </c>
+      <c r="M9" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="N9" s="7">
+        <v>500</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>1</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0</v>
+      </c>
+      <c r="T9" s="7">
+        <v>1</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W9" s="7">
+        <v>1</v>
+      </c>
+      <c r="X9" s="10">
+        <v>1.46</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="12">
         <v>1</v>
       </c>
     </row>
